--- a/downloaded_files/MDPS355_Tutorial-35679.xlsx
+++ b/downloaded_files/MDPS355_Tutorial-35679.xlsx
@@ -132,15 +132,6 @@
     <x:t>Abdelrahman Ahmed Hasan Ahmed Bakr</x:t>
   </x:si>
   <x:si>
-    <x:t>1230051</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن احمد مصطفى كامل البنا</x:t>
-  </x:si>
-  <x:si>
-    <x:t>abdelrahman ahmed mostafa</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230056</x:t>
   </x:si>
   <x:si>
@@ -157,6 +148,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Essam Ali shady</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230222</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر وليد محمود عبد الرؤف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Walid Mahmoud Abdelraouf</x:t>
   </x:si>
   <x:si>
     <x:t>4240038</x:t>
@@ -1204,7 +1204,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4381296296</x:v>
+        <x:v>45907.4144978356</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1236,7 +1236,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4144978356</x:v>
+        <x:v>45907.4191667014</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1268,7 +1268,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4191667014</x:v>
+        <x:v>45907.4145161227</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>

--- a/downloaded_files/MDPS355_Tutorial-35679.xlsx
+++ b/downloaded_files/MDPS355_Tutorial-35679.xlsx
@@ -852,7 +852,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45906.6649468403</x:v>
+        <x:v>45927.4299196759</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -1108,7 +1108,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45914.4399514236</x:v>
+        <x:v>45927.4282048264</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>

--- a/downloaded_files/MDPS355_Tutorial-35679.xlsx
+++ b/downloaded_files/MDPS355_Tutorial-35679.xlsx
@@ -1812,7 +1812,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4408876968</x:v>
+        <x:v>45927.722759294</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>

--- a/downloaded_files/MDPS355_Tutorial-35679.xlsx
+++ b/downloaded_files/MDPS355_Tutorial-35679.xlsx
@@ -1588,7 +1588,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4188102662</x:v>
+        <x:v>45928.9745405093</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>

--- a/downloaded_files/MDPS355_Tutorial-35679.xlsx
+++ b/downloaded_files/MDPS355_Tutorial-35679.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -220,15 +220,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Tarek Mohamed Kamal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220314</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد وليد محمد جاد الكريم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mohamed waleed</x:t>
   </x:si>
   <x:si>
     <x:t>1230112</x:t>
@@ -461,7 +452,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -761,7 +752,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1524,7 +1515,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4300540509</x:v>
+        <x:v>45907.414771412</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1556,7 +1547,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.414771412</x:v>
+        <x:v>45928.9745405093</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1588,7 +1579,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45928.9745405093</x:v>
+        <x:v>45907.4165546296</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1620,7 +1611,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4165546296</x:v>
+        <x:v>45907.415655706</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1652,7 +1643,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.415655706</x:v>
+        <x:v>45907.4207747685</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1684,7 +1675,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4207747685</x:v>
+        <x:v>45907.4214269676</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1716,7 +1707,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4214269676</x:v>
+        <x:v>45907.4265503125</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1748,7 +1739,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4265503125</x:v>
+        <x:v>45907.4150447917</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1780,7 +1771,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4150447917</x:v>
+        <x:v>45927.722759294</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1812,7 +1803,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45927.722759294</x:v>
+        <x:v>45907.4150437153</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1844,7 +1835,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4150437153</x:v>
+        <x:v>45907.4146331366</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1876,7 +1867,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4146331366</x:v>
+        <x:v>45907.4149444792</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1908,7 +1899,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4149444792</x:v>
+        <x:v>45907.4185138542</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1925,38 +1916,6 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45907.4185138542</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS355_Tutorial-35679.xlsx
+++ b/downloaded_files/MDPS355_Tutorial-35679.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -247,6 +247,15 @@
   </x:si>
   <x:si>
     <x:t>Marwan Amr Abdelmagid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مروان محمود عبدالعليم ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARAWAN</x:t>
   </x:si>
   <x:si>
     <x:t>1230305</x:t>
@@ -452,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -752,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1355,7 +1364,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45915.8850995023</x:v>
+        <x:v>45933.5585101852</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1611,7 +1620,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.415655706</x:v>
+        <x:v>45933.5587388079</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1643,7 +1652,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4207747685</x:v>
+        <x:v>45907.415655706</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1675,7 +1684,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4214269676</x:v>
+        <x:v>45907.4207747685</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1707,7 +1716,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4265503125</x:v>
+        <x:v>45907.4214269676</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1739,7 +1748,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4150447917</x:v>
+        <x:v>45907.4265503125</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1771,7 +1780,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45927.722759294</x:v>
+        <x:v>45907.4150447917</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1803,7 +1812,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4150437153</x:v>
+        <x:v>45927.722759294</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1835,7 +1844,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4146331366</x:v>
+        <x:v>45907.4150437153</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1867,7 +1876,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4149444792</x:v>
+        <x:v>45907.4146331366</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1899,7 +1908,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4185138542</x:v>
+        <x:v>45907.4149444792</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1916,6 +1925,38 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45907.4185138542</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS355_Tutorial-35679.xlsx
+++ b/downloaded_files/MDPS355_Tutorial-35679.xlsx
@@ -108,7 +108,7 @@
     <x:t>1230179</x:t>
   </x:si>
   <x:si>
-    <x:t>حمزة محمد سيد حسن</x:t>
+    <x:t>حمزة محمد سيد على على حسن</x:t>
   </x:si>
   <x:si>
     <x:t>Hamza Mohamed Sayed Aly Aly Hassan</x:t>

--- a/downloaded_files/MDPS355_Tutorial-35679.xlsx
+++ b/downloaded_files/MDPS355_Tutorial-35679.xlsx
@@ -84,7 +84,7 @@
     <x:t>ادهم مدحت عبدالمعز العزب هيبه</x:t>
   </x:si>
   <x:si>
-    <x:t>Adham Medhat Abdelmoaz Heba</x:t>
+    <x:t>Adham Medhat Abdelmoaz Elazab Heba</x:t>
   </x:si>
   <x:si>
     <x:t>1230166</x:t>

--- a/downloaded_files/MDPS355_Tutorial-35679.xlsx
+++ b/downloaded_files/MDPS355_Tutorial-35679.xlsx
@@ -99,10 +99,10 @@
     <x:t>1230028</x:t>
   </x:si>
   <x:si>
-    <x:t>حبيبه حسين محمد احمد احمد بدر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Habiba Hussein</x:t>
+    <x:t xml:space="preserve">حبيبه حسين محمد احمد </x:t>
+  </x:si>
+  <x:si>
+    <x:t>HABIBA HUSSEIN MOHAMED AHMED</x:t>
   </x:si>
   <x:si>
     <x:t>1230179</x:t>
